--- a/DailyRoutine.xlsx
+++ b/DailyRoutine.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441188FD-2A05-A94C-8302-D6D9EA7EC755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DBAAF2-0F3B-9342-BA79-6F477372A420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>上班时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,11 +46,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被下最后通牒了，因此得开始恢复正常作息了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待定</t>
+    <t>准备睡眠时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入睡时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约1:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:00-00:40(洗澡洗衣服）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始正常作息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月10号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,18 +393,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="56.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -402,13 +420,16 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -418,12 +439,33 @@
       <c r="C2" s="1">
         <v>0.66666666666666663</v>
       </c>
+      <c r="D2" s="1">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.3888888888888889</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>